--- a/data/pca/factorExposure/factorExposure_2017-09-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02338555111847096</v>
+        <v>-0.004581179667928774</v>
       </c>
       <c r="C2">
-        <v>-0.00015795926117275</v>
+        <v>0.03952939235351459</v>
       </c>
       <c r="D2">
-        <v>0.01529519393191905</v>
+        <v>0.02967023168515706</v>
       </c>
       <c r="E2">
-        <v>-0.008861643938493974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02797863667518122</v>
+      </c>
+      <c r="F2">
+        <v>-0.02428251711088773</v>
+      </c>
+      <c r="G2">
+        <v>0.03365577019488696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01306553001676481</v>
+        <v>-0.0504602796523678</v>
       </c>
       <c r="C3">
-        <v>-0.04035528294157431</v>
+        <v>0.07708832559727612</v>
       </c>
       <c r="D3">
-        <v>0.01297500964944612</v>
+        <v>0.01551789897303156</v>
       </c>
       <c r="E3">
-        <v>-0.001427458382038685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09128832027121683</v>
+      </c>
+      <c r="F3">
+        <v>-0.06480141109395156</v>
+      </c>
+      <c r="G3">
+        <v>0.08182369253819077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02214206990506102</v>
+        <v>-0.05417573734404278</v>
       </c>
       <c r="C4">
-        <v>-0.01388667766660237</v>
+        <v>0.06157079350812442</v>
       </c>
       <c r="D4">
-        <v>0.06121645422974931</v>
+        <v>0.02348932126978813</v>
       </c>
       <c r="E4">
-        <v>0.01762709711737841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0183267311321832</v>
+      </c>
+      <c r="F4">
+        <v>-0.01350020830841685</v>
+      </c>
+      <c r="G4">
+        <v>0.05588924839188756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01520020920236487</v>
+        <v>-0.03351962176359658</v>
       </c>
       <c r="C6">
-        <v>-0.01710433426332914</v>
+        <v>0.05078358523216695</v>
       </c>
       <c r="D6">
-        <v>0.0816096546153252</v>
+        <v>0.016124399321236</v>
       </c>
       <c r="E6">
-        <v>0.009318508116239537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01447379677901417</v>
+      </c>
+      <c r="F6">
+        <v>-0.01210963023697385</v>
+      </c>
+      <c r="G6">
+        <v>0.03653644007041836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009972801132958667</v>
+        <v>-0.01339417925299227</v>
       </c>
       <c r="C7">
-        <v>-0.001796813199907793</v>
+        <v>0.03635142145780904</v>
       </c>
       <c r="D7">
-        <v>0.03120948154965707</v>
+        <v>0.01345513914283373</v>
       </c>
       <c r="E7">
-        <v>0.07262002680876919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.009931965536652</v>
+      </c>
+      <c r="F7">
+        <v>-0.008029334674468621</v>
+      </c>
+      <c r="G7">
+        <v>0.09016871018302056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002461589473386667</v>
+        <v>0.002978783032038705</v>
       </c>
       <c r="C8">
-        <v>0.006333829854749793</v>
+        <v>0.01837547865267509</v>
       </c>
       <c r="D8">
-        <v>0.005554354096961793</v>
+        <v>0.004183939662334933</v>
       </c>
       <c r="E8">
-        <v>0.008155115857713271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02135695933290807</v>
+      </c>
+      <c r="F8">
+        <v>-0.02465584016579545</v>
+      </c>
+      <c r="G8">
+        <v>0.02699343516019938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01465810805740168</v>
+        <v>-0.02967537797449855</v>
       </c>
       <c r="C9">
-        <v>-0.01295168817499695</v>
+        <v>0.04270192760886222</v>
       </c>
       <c r="D9">
-        <v>0.04545800411196718</v>
+        <v>0.01631962620817158</v>
       </c>
       <c r="E9">
-        <v>0.007989981674216747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01436278234781611</v>
+      </c>
+      <c r="F9">
+        <v>-0.01870278064645508</v>
+      </c>
+      <c r="G9">
+        <v>0.04713685800898661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01149974477978159</v>
+        <v>-0.09209700152007884</v>
       </c>
       <c r="C10">
-        <v>-0.1610303766959987</v>
+        <v>-0.1852868467404061</v>
       </c>
       <c r="D10">
-        <v>-0.1207437071430945</v>
+        <v>-0.0175340506734234</v>
       </c>
       <c r="E10">
-        <v>0.01199542263456031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01365082332066479</v>
+      </c>
+      <c r="F10">
+        <v>0.01276140883275459</v>
+      </c>
+      <c r="G10">
+        <v>0.04741374855229778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>8.673135591660833e-05</v>
+        <v>-0.03041446644943751</v>
       </c>
       <c r="C11">
-        <v>-0.004664223188921026</v>
+        <v>0.05350931879335693</v>
       </c>
       <c r="D11">
-        <v>0.04353802152926593</v>
+        <v>0.002383498253631839</v>
       </c>
       <c r="E11">
-        <v>-0.007698497272694353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007179328678666672</v>
+      </c>
+      <c r="F11">
+        <v>-0.02436451728783816</v>
+      </c>
+      <c r="G11">
+        <v>0.0290598500443745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005455956347100869</v>
+        <v>-0.03093308583126293</v>
       </c>
       <c r="C12">
-        <v>-0.01259615155871129</v>
+        <v>0.04552318144376311</v>
       </c>
       <c r="D12">
-        <v>0.04561982604247097</v>
+        <v>0.006292104789285995</v>
       </c>
       <c r="E12">
-        <v>0.001135019178819546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0004224721284350838</v>
+      </c>
+      <c r="F12">
+        <v>-0.008858506012598898</v>
+      </c>
+      <c r="G12">
+        <v>0.03219375601954795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02111328704127084</v>
+        <v>-0.01319984629823803</v>
       </c>
       <c r="C13">
-        <v>-0.01113859065617987</v>
+        <v>0.03108129092651904</v>
       </c>
       <c r="D13">
-        <v>0.01282182629011842</v>
+        <v>0.02509311626197164</v>
       </c>
       <c r="E13">
-        <v>-0.006151270409579409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02214795824932718</v>
+      </c>
+      <c r="F13">
+        <v>-0.01737519667186411</v>
+      </c>
+      <c r="G13">
+        <v>0.04402389989766865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006987224107071928</v>
+        <v>-0.007007852085565123</v>
       </c>
       <c r="C14">
-        <v>-0.01229292062088655</v>
+        <v>0.02603303224808629</v>
       </c>
       <c r="D14">
-        <v>0.01547842034596908</v>
+        <v>0.008797828635437457</v>
       </c>
       <c r="E14">
-        <v>0.01227233598621527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005388760042935759</v>
+      </c>
+      <c r="F14">
+        <v>0.0002938067488157508</v>
+      </c>
+      <c r="G14">
+        <v>0.04926047623022925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006837457810684823</v>
+        <v>-0.03003124751326749</v>
       </c>
       <c r="C16">
-        <v>-0.01195193796834844</v>
+        <v>0.04443787786719592</v>
       </c>
       <c r="D16">
-        <v>0.04629992909227729</v>
+        <v>0.001839229846291526</v>
       </c>
       <c r="E16">
-        <v>-0.0003201037175765652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00774122201258466</v>
+      </c>
+      <c r="F16">
+        <v>-0.01202164788803353</v>
+      </c>
+      <c r="G16">
+        <v>0.03031246685832452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01300387738819544</v>
+        <v>-0.022712509254436</v>
       </c>
       <c r="C19">
-        <v>-0.02351476700014053</v>
+        <v>0.04795180275852909</v>
       </c>
       <c r="D19">
-        <v>0.02394419062275513</v>
+        <v>0.01674391594755284</v>
       </c>
       <c r="E19">
-        <v>0.006631128011267044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05410042874156787</v>
+      </c>
+      <c r="F19">
+        <v>-0.03637413089996083</v>
+      </c>
+      <c r="G19">
+        <v>0.05702471689362749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01012543905561539</v>
+        <v>-0.01056053683548609</v>
       </c>
       <c r="C20">
-        <v>-0.005338517175465976</v>
+        <v>0.03382071083900895</v>
       </c>
       <c r="D20">
-        <v>0.01084545359971142</v>
+        <v>0.01336277912011617</v>
       </c>
       <c r="E20">
-        <v>0.0004781048395110272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02349217042408239</v>
+      </c>
+      <c r="F20">
+        <v>-0.00209746540791943</v>
+      </c>
+      <c r="G20">
+        <v>0.04593046376768384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01388743516894265</v>
+        <v>-0.01359334991573466</v>
       </c>
       <c r="C21">
-        <v>-0.02964155583251858</v>
+        <v>0.03569780700815763</v>
       </c>
       <c r="D21">
-        <v>0.01955013426513276</v>
+        <v>0.01668445068596964</v>
       </c>
       <c r="E21">
-        <v>0.02005922886478188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03113842548451379</v>
+      </c>
+      <c r="F21">
+        <v>-0.0119143424981057</v>
+      </c>
+      <c r="G21">
+        <v>0.06810543273254673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004632086920773265</v>
+        <v>-0.02346603657995833</v>
       </c>
       <c r="C24">
-        <v>-0.003474358287099215</v>
+        <v>0.04727545595996312</v>
       </c>
       <c r="D24">
-        <v>0.04273927660012129</v>
+        <v>0.007274072580967134</v>
       </c>
       <c r="E24">
-        <v>-0.002293842739437093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.00318715774366339</v>
+      </c>
+      <c r="F24">
+        <v>-0.02199364683779453</v>
+      </c>
+      <c r="G24">
+        <v>0.03161790538740598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01116392466749312</v>
+        <v>-0.0387083593703593</v>
       </c>
       <c r="C25">
-        <v>-0.02093834517068004</v>
+        <v>0.05492165538840979</v>
       </c>
       <c r="D25">
-        <v>0.04298267112619768</v>
+        <v>0.01140142037008476</v>
       </c>
       <c r="E25">
-        <v>-0.001194254100592989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.003067974904937551</v>
+      </c>
+      <c r="F25">
+        <v>-0.01781271225340281</v>
+      </c>
+      <c r="G25">
+        <v>0.03844186747782378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0223723585394271</v>
+        <v>-0.01150805387917357</v>
       </c>
       <c r="C26">
-        <v>-0.008012289889619202</v>
+        <v>0.008629071829048198</v>
       </c>
       <c r="D26">
-        <v>-0.007282014553395793</v>
+        <v>0.02361305976544135</v>
       </c>
       <c r="E26">
-        <v>0.009960898744626625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.004068769333577459</v>
+      </c>
+      <c r="F26">
+        <v>-0.001992189540631708</v>
+      </c>
+      <c r="G26">
+        <v>0.03615801626934482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03009336241208899</v>
+        <v>-0.1170372981280895</v>
       </c>
       <c r="C28">
-        <v>-0.2366305495427948</v>
+        <v>-0.2283692109877871</v>
       </c>
       <c r="D28">
-        <v>-0.1713587661969659</v>
+        <v>-0.008502352484017785</v>
       </c>
       <c r="E28">
-        <v>0.02010321475544767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002327549345239472</v>
+      </c>
+      <c r="F28">
+        <v>0.01115339181669749</v>
+      </c>
+      <c r="G28">
+        <v>0.06331127818345246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007243538400339269</v>
+        <v>-0.0107450136824502</v>
       </c>
       <c r="C29">
-        <v>-0.01705476222409934</v>
+        <v>0.01989386063127541</v>
       </c>
       <c r="D29">
-        <v>0.01238996349991453</v>
+        <v>0.007581223622783037</v>
       </c>
       <c r="E29">
-        <v>0.007587961675429786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.006942587718613533</v>
+      </c>
+      <c r="F29">
+        <v>0.009173091680278972</v>
+      </c>
+      <c r="G29">
+        <v>0.04020571077726953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02294215893663785</v>
+        <v>-0.04114285919805987</v>
       </c>
       <c r="C30">
-        <v>0.0007487175558594177</v>
+        <v>0.06523981094212514</v>
       </c>
       <c r="D30">
-        <v>0.06533069206383375</v>
+        <v>0.02809456496871178</v>
       </c>
       <c r="E30">
-        <v>-0.0563369587948528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04102986200306377</v>
+      </c>
+      <c r="F30">
+        <v>-0.05367818655555159</v>
+      </c>
+      <c r="G30">
+        <v>0.01773394728240388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007403078274194065</v>
+        <v>-0.04657196831380552</v>
       </c>
       <c r="C31">
-        <v>-0.04329650076539658</v>
+        <v>0.03276091609886203</v>
       </c>
       <c r="D31">
-        <v>0.0422271156657701</v>
+        <v>0.003601693602663205</v>
       </c>
       <c r="E31">
-        <v>0.009188234554531979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006989191837221454</v>
+      </c>
+      <c r="F31">
+        <v>0.03084286643847104</v>
+      </c>
+      <c r="G31">
+        <v>0.03849848911051155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007373271001991473</v>
+        <v>0.003120118215845477</v>
       </c>
       <c r="C32">
-        <v>-0.01532245210287776</v>
+        <v>0.03112098846080129</v>
       </c>
       <c r="D32">
-        <v>-0.002131146324341443</v>
+        <v>-0.004041598365726306</v>
       </c>
       <c r="E32">
-        <v>0.02938276805406388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.008985524502364745</v>
+      </c>
+      <c r="F32">
+        <v>-0.05032060439227741</v>
+      </c>
+      <c r="G32">
+        <v>0.05843723711857792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01209457971065375</v>
+        <v>-0.02490637705025147</v>
       </c>
       <c r="C33">
-        <v>-0.02107488147521757</v>
+        <v>0.04715054047317082</v>
       </c>
       <c r="D33">
-        <v>0.02183429289885162</v>
+        <v>0.0149459085717431</v>
       </c>
       <c r="E33">
-        <v>-0.02219315114092605</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02596403412737247</v>
+      </c>
+      <c r="F33">
+        <v>-0.03151305950100006</v>
+      </c>
+      <c r="G33">
+        <v>0.04690806708822337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00483390138016068</v>
+        <v>-0.03842606700139289</v>
       </c>
       <c r="C34">
-        <v>-0.01957971651407679</v>
+        <v>0.05627152383392783</v>
       </c>
       <c r="D34">
-        <v>0.04835536183056693</v>
+        <v>-0.004497344757285394</v>
       </c>
       <c r="E34">
-        <v>0.007083945662595618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.003866684891022351</v>
+      </c>
+      <c r="F34">
+        <v>-0.02739521620535351</v>
+      </c>
+      <c r="G34">
+        <v>0.04330633293253722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01175826424640116</v>
+        <v>-0.01088863655157643</v>
       </c>
       <c r="C36">
-        <v>-0.01771644458600916</v>
+        <v>0.00750068533944144</v>
       </c>
       <c r="D36">
-        <v>0.001119995886177096</v>
+        <v>0.01157642614671626</v>
       </c>
       <c r="E36">
-        <v>0.004158928643854222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0007014295495075067</v>
+      </c>
+      <c r="F36">
+        <v>0.003269656832325941</v>
+      </c>
+      <c r="G36">
+        <v>0.03173652391766173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005919733372738356</v>
+        <v>-0.03038323378320096</v>
       </c>
       <c r="C38">
-        <v>-0.02791794789676621</v>
+        <v>0.02765300491770512</v>
       </c>
       <c r="D38">
-        <v>0.01939751854521457</v>
+        <v>-0.007364742454046426</v>
       </c>
       <c r="E38">
-        <v>0.006434648040140253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004117072333172427</v>
+      </c>
+      <c r="F38">
+        <v>0.004002651910395959</v>
+      </c>
+      <c r="G38">
+        <v>0.04163219562266617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005593978856508075</v>
+        <v>-0.0299731506106176</v>
       </c>
       <c r="C39">
-        <v>0.02074483598063593</v>
+        <v>0.08058258475459468</v>
       </c>
       <c r="D39">
-        <v>0.09074979500279604</v>
+        <v>0.01239788228857946</v>
       </c>
       <c r="E39">
-        <v>-0.00624586457974879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02306748010149759</v>
+      </c>
+      <c r="F39">
+        <v>-0.04176653062591076</v>
+      </c>
+      <c r="G39">
+        <v>0.03232499336672538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.009970671975100957</v>
+        <v>-0.01816001312103999</v>
       </c>
       <c r="C40">
-        <v>-0.009743982363925817</v>
+        <v>0.03197879574216821</v>
       </c>
       <c r="D40">
-        <v>0.03789939623466678</v>
+        <v>0.01339262246414854</v>
       </c>
       <c r="E40">
-        <v>-0.003263084050236462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.018652911547942</v>
+      </c>
+      <c r="F40">
+        <v>-0.02129817122042903</v>
+      </c>
+      <c r="G40">
+        <v>0.03280033363715971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004970613180847541</v>
+        <v>-0.01078502588536019</v>
       </c>
       <c r="C41">
-        <v>-0.02001117479425632</v>
+        <v>-0.0003391394054285982</v>
       </c>
       <c r="D41">
-        <v>-0.01087996984270944</v>
+        <v>0.003973699894635533</v>
       </c>
       <c r="E41">
-        <v>0.003645862423539684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0007849799898914283</v>
+      </c>
+      <c r="F41">
+        <v>-0.003006992893380979</v>
+      </c>
+      <c r="G41">
+        <v>0.02266056669634593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09429038013695831</v>
+        <v>-0.01514813428845174</v>
       </c>
       <c r="C42">
-        <v>0.00157324471493166</v>
+        <v>0.04450428591586193</v>
       </c>
       <c r="D42">
-        <v>0.2756299775821217</v>
+        <v>0.09548702628859446</v>
       </c>
       <c r="E42">
-        <v>-0.2750096163572282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04077954464780652</v>
+      </c>
+      <c r="F42">
+        <v>0.04891631331962638</v>
+      </c>
+      <c r="G42">
+        <v>-0.1560127830946857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005929190879282846</v>
+        <v>-0.02752977517666792</v>
       </c>
       <c r="C43">
-        <v>-0.01975265069063962</v>
+        <v>0.01017759632830654</v>
       </c>
       <c r="D43">
-        <v>-0.0162100438471489</v>
+        <v>0.004745564980318646</v>
       </c>
       <c r="E43">
-        <v>-0.001457056062009942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00807943410976179</v>
+      </c>
+      <c r="F43">
+        <v>-0.002821881047944562</v>
+      </c>
+      <c r="G43">
+        <v>0.03254518675807243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002775282969624969</v>
+        <v>-0.01240131685004691</v>
       </c>
       <c r="C44">
-        <v>0.0006157739619349882</v>
+        <v>0.04944600211057212</v>
       </c>
       <c r="D44">
-        <v>0.02464362357791572</v>
+        <v>0.006727271880889284</v>
       </c>
       <c r="E44">
-        <v>0.004462984683977473</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01669232415805003</v>
+      </c>
+      <c r="F44">
+        <v>-0.00913928645462605</v>
+      </c>
+      <c r="G44">
+        <v>0.04971906940273205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01042993967666298</v>
+        <v>-0.005137705824054072</v>
       </c>
       <c r="C46">
-        <v>-0.0176169116770964</v>
+        <v>0.01677872697883098</v>
       </c>
       <c r="D46">
-        <v>0.01090510591427042</v>
+        <v>0.01162540523972589</v>
       </c>
       <c r="E46">
-        <v>0.00282288311692789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00354734383864057</v>
+      </c>
+      <c r="F46">
+        <v>0.01137920163245877</v>
+      </c>
+      <c r="G46">
+        <v>0.03669449043211642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001359113881878397</v>
+        <v>-0.07441471646762964</v>
       </c>
       <c r="C47">
-        <v>-0.05502814994538337</v>
+        <v>0.06487435770069981</v>
       </c>
       <c r="D47">
-        <v>0.05609968774869381</v>
+        <v>-0.004867022866758898</v>
       </c>
       <c r="E47">
-        <v>-0.001000161898761439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008208735735450045</v>
+      </c>
+      <c r="F47">
+        <v>0.04982530296242687</v>
+      </c>
+      <c r="G47">
+        <v>0.03720896739022393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00257614950421744</v>
+        <v>-0.02010328658674784</v>
       </c>
       <c r="C48">
-        <v>-0.02564131187898179</v>
+        <v>0.009614102003001355</v>
       </c>
       <c r="D48">
-        <v>0.01151630639460514</v>
+        <v>0.0009573421852731125</v>
       </c>
       <c r="E48">
-        <v>0.002882181715041031</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002667974951043847</v>
+      </c>
+      <c r="F48">
+        <v>0.01116215697297668</v>
+      </c>
+      <c r="G48">
+        <v>0.03840472346623364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002529630618199284</v>
+        <v>-0.07897734304253377</v>
       </c>
       <c r="C50">
-        <v>-0.0454723728440872</v>
+        <v>0.06659577130291558</v>
       </c>
       <c r="D50">
-        <v>0.06184275198470253</v>
+        <v>-0.003156141282046274</v>
       </c>
       <c r="E50">
-        <v>0.02624733560378417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01053387557216712</v>
+      </c>
+      <c r="F50">
+        <v>0.04795780903106758</v>
+      </c>
+      <c r="G50">
+        <v>0.06237243883873427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007022872545774636</v>
+        <v>-0.008635439881314348</v>
       </c>
       <c r="C51">
-        <v>-0.01939916759823098</v>
+        <v>0.02720744605180983</v>
       </c>
       <c r="D51">
-        <v>-0.01239650323889423</v>
+        <v>0.009506786480549471</v>
       </c>
       <c r="E51">
-        <v>0.01058422864658719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.009445281312353809</v>
+      </c>
+      <c r="F51">
+        <v>-0.02432294394021847</v>
+      </c>
+      <c r="G51">
+        <v>0.06248379548020458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004475388922712831</v>
+        <v>-0.08326130514560121</v>
       </c>
       <c r="C53">
-        <v>-0.07118032348211853</v>
+        <v>0.08125160033239154</v>
       </c>
       <c r="D53">
-        <v>0.1149427426093008</v>
+        <v>-0.004214789542761225</v>
       </c>
       <c r="E53">
-        <v>0.008005046010856531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02824520205465512</v>
+      </c>
+      <c r="F53">
+        <v>0.05669894160205479</v>
+      </c>
+      <c r="G53">
+        <v>0.04070776557231782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001127846005302523</v>
+        <v>-0.02979905296327127</v>
       </c>
       <c r="C54">
-        <v>-0.03321628917533506</v>
+        <v>0.01017963558691848</v>
       </c>
       <c r="D54">
-        <v>-0.00886346016804359</v>
+        <v>-0.002910522501243975</v>
       </c>
       <c r="E54">
-        <v>0.0115841653172031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0006622444127202796</v>
+      </c>
+      <c r="F54">
+        <v>0.001772203274151058</v>
+      </c>
+      <c r="G54">
+        <v>0.04155409214169865</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.002010976553459553</v>
+        <v>-0.07064571864911436</v>
       </c>
       <c r="C55">
-        <v>-0.05300654710218421</v>
+        <v>0.07244301033324739</v>
       </c>
       <c r="D55">
-        <v>0.09924035417333685</v>
+        <v>-0.004511652250294393</v>
       </c>
       <c r="E55">
-        <v>-0.004220906143560124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02019935934032805</v>
+      </c>
+      <c r="F55">
+        <v>0.05320612179841935</v>
+      </c>
+      <c r="G55">
+        <v>0.02196922086272773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.001641438988469295</v>
+        <v>-0.1419590325215219</v>
       </c>
       <c r="C56">
-        <v>-0.09490042961638213</v>
+        <v>0.1057108556957995</v>
       </c>
       <c r="D56">
-        <v>0.1472824054417507</v>
+        <v>-0.01307786251731956</v>
       </c>
       <c r="E56">
-        <v>-0.002562701161113738</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03337333159332997</v>
+      </c>
+      <c r="F56">
+        <v>0.08335999780766563</v>
+      </c>
+      <c r="G56">
+        <v>0.01215603377878703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02368005271722935</v>
+        <v>-0.00967281035280634</v>
       </c>
       <c r="C57">
-        <v>-0.02352687828206644</v>
+        <v>0.01070367040170643</v>
       </c>
       <c r="D57">
-        <v>0.04260912293679021</v>
+        <v>0.02382272491891891</v>
       </c>
       <c r="E57">
-        <v>-0.002260641782646994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02754810744867351</v>
+      </c>
+      <c r="F57">
+        <v>-0.01678351219759086</v>
+      </c>
+      <c r="G57">
+        <v>0.0242711344213482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01001667022364322</v>
+        <v>-0.07086931690982397</v>
       </c>
       <c r="C58">
-        <v>-0.08735257670650524</v>
+        <v>0.03734904248179833</v>
       </c>
       <c r="D58">
-        <v>0.09127096868788312</v>
+        <v>0.01897347526045133</v>
       </c>
       <c r="E58">
-        <v>-0.2056224216720197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9527782208435549</v>
+      </c>
+      <c r="F58">
+        <v>0.1923881747554763</v>
+      </c>
+      <c r="G58">
+        <v>-0.006102756165954977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02613859017904283</v>
+        <v>-0.1587257359661237</v>
       </c>
       <c r="C59">
-        <v>-0.2464621520010366</v>
+        <v>-0.2117472194086633</v>
       </c>
       <c r="D59">
-        <v>-0.1702639872614128</v>
+        <v>-0.01562739606951234</v>
       </c>
       <c r="E59">
-        <v>-0.003680537560592027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.008642920610405698</v>
+      </c>
+      <c r="F59">
+        <v>-0.006244777634261337</v>
+      </c>
+      <c r="G59">
+        <v>0.02181529915916236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03174645675365125</v>
+        <v>-0.2866689366255703</v>
       </c>
       <c r="C60">
-        <v>-0.1555463190081851</v>
+        <v>0.09956040354605698</v>
       </c>
       <c r="D60">
-        <v>0.0865314208881259</v>
+        <v>0.01149456479292908</v>
       </c>
       <c r="E60">
-        <v>-0.03738452532127735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01154504229278496</v>
+      </c>
+      <c r="F60">
+        <v>-0.3551997625194214</v>
+      </c>
+      <c r="G60">
+        <v>-0.103365010520021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002847194437927197</v>
+        <v>-0.03209579295815514</v>
       </c>
       <c r="C61">
-        <v>-0.006169407674613848</v>
+        <v>0.06539009949127444</v>
       </c>
       <c r="D61">
-        <v>0.06599395699216037</v>
+        <v>0.005610239450380573</v>
       </c>
       <c r="E61">
-        <v>-0.002512683502554794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01002105661033112</v>
+      </c>
+      <c r="F61">
+        <v>-0.02418775920946699</v>
+      </c>
+      <c r="G61">
+        <v>0.03088903724431514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007109086123739341</v>
+        <v>-0.01160602574331494</v>
       </c>
       <c r="C63">
-        <v>-0.007434153699845817</v>
+        <v>0.02786187276486976</v>
       </c>
       <c r="D63">
-        <v>0.007393907519134101</v>
+        <v>0.008160622782562294</v>
       </c>
       <c r="E63">
-        <v>0.009425045430601067</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.005135324902065809</v>
+      </c>
+      <c r="F63">
+        <v>0.01468453341875651</v>
+      </c>
+      <c r="G63">
+        <v>0.04425957803990883</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006864960974998549</v>
+        <v>-0.0500041161550788</v>
       </c>
       <c r="C64">
-        <v>-0.02667583091340412</v>
+        <v>0.04150728155139147</v>
       </c>
       <c r="D64">
-        <v>0.06267769310122183</v>
+        <v>0.005658826439153</v>
       </c>
       <c r="E64">
-        <v>-0.009041520458388755</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.005449884253503606</v>
+      </c>
+      <c r="F64">
+        <v>-0.007547600966535735</v>
+      </c>
+      <c r="G64">
+        <v>0.02902132236734291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01768941108301744</v>
+        <v>-0.08121395291667188</v>
       </c>
       <c r="C65">
-        <v>-0.02269399258046715</v>
+        <v>0.06155998833299347</v>
       </c>
       <c r="D65">
-        <v>0.09429472563271327</v>
+        <v>0.0156244208798312</v>
       </c>
       <c r="E65">
-        <v>0.007219174931711068</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01779640096712512</v>
+      </c>
+      <c r="F65">
+        <v>-0.03453459521945385</v>
+      </c>
+      <c r="G65">
+        <v>0.02012550283753142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005308006616666762</v>
+        <v>-0.04858394446174434</v>
       </c>
       <c r="C66">
-        <v>0.01039091614670914</v>
+        <v>0.1135636817797469</v>
       </c>
       <c r="D66">
-        <v>0.1171827881619887</v>
+        <v>0.01225180014401042</v>
       </c>
       <c r="E66">
-        <v>-0.02055063229130723</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0284743769046602</v>
+      </c>
+      <c r="F66">
+        <v>-0.05144996357151999</v>
+      </c>
+      <c r="G66">
+        <v>0.02682497375437141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0006265959109243561</v>
+        <v>-0.05310688004024969</v>
       </c>
       <c r="C67">
-        <v>-0.04640642009322321</v>
+        <v>0.03266200064476589</v>
       </c>
       <c r="D67">
-        <v>0.02666690233732478</v>
+        <v>-0.005424072296865746</v>
       </c>
       <c r="E67">
-        <v>0.004736471942732359</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001645690874138281</v>
+      </c>
+      <c r="F67">
+        <v>0.005039267172702221</v>
+      </c>
+      <c r="G67">
+        <v>0.03998361715193238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04452767469062972</v>
+        <v>-0.1385053107514335</v>
       </c>
       <c r="C68">
-        <v>-0.2227475633602598</v>
+        <v>-0.2692015028439569</v>
       </c>
       <c r="D68">
-        <v>-0.1586505184141331</v>
+        <v>0.002796752361520501</v>
       </c>
       <c r="E68">
-        <v>-0.010050191555114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00950920791716999</v>
+      </c>
+      <c r="F68">
+        <v>0.03557160530659639</v>
+      </c>
+      <c r="G68">
+        <v>0.02469568458811709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003474776065621197</v>
+        <v>-0.07602628771343088</v>
       </c>
       <c r="C69">
-        <v>-0.03858382503566764</v>
+        <v>0.06579473290705762</v>
       </c>
       <c r="D69">
-        <v>0.05932492084602941</v>
+        <v>-0.008827633528998898</v>
       </c>
       <c r="E69">
-        <v>0.004208635839323115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02595213754650631</v>
+      </c>
+      <c r="F69">
+        <v>0.03278988643565987</v>
+      </c>
+      <c r="G69">
+        <v>0.03887295953634307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03118550812653638</v>
+        <v>-0.133843031206741</v>
       </c>
       <c r="C71">
-        <v>-0.1953361388405086</v>
+        <v>-0.23413633126578</v>
       </c>
       <c r="D71">
-        <v>-0.1493615792391816</v>
+        <v>-0.006145186634422917</v>
       </c>
       <c r="E71">
-        <v>0.00418469117491001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02505481304575479</v>
+      </c>
+      <c r="F71">
+        <v>0.004983180216244766</v>
+      </c>
+      <c r="G71">
+        <v>0.03755026959922365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002286941915829571</v>
+        <v>-0.08236385313937726</v>
       </c>
       <c r="C72">
-        <v>-0.0449050728953963</v>
+        <v>0.07359499445790978</v>
       </c>
       <c r="D72">
-        <v>0.1315033027832578</v>
+        <v>-0.008012868708790467</v>
       </c>
       <c r="E72">
-        <v>-0.01937544362537255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.007561740152685577</v>
+      </c>
+      <c r="F72">
+        <v>-0.03804282071635835</v>
+      </c>
+      <c r="G72">
+        <v>0.01204431591757311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04563623858130782</v>
+        <v>-0.3959554253530962</v>
       </c>
       <c r="C73">
-        <v>-0.1910350661169586</v>
+        <v>0.1117806994662723</v>
       </c>
       <c r="D73">
-        <v>0.1546341056675078</v>
+        <v>0.01773317765719998</v>
       </c>
       <c r="E73">
-        <v>-0.09554113366131743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.04058655931791254</v>
+      </c>
+      <c r="F73">
+        <v>-0.5497062355068267</v>
+      </c>
+      <c r="G73">
+        <v>-0.184453818356728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0002131942332763478</v>
+        <v>-0.1112470658573243</v>
       </c>
       <c r="C74">
-        <v>-0.08585131690426907</v>
+        <v>0.1188900661869972</v>
       </c>
       <c r="D74">
-        <v>0.1514481809165522</v>
+        <v>-0.009614117727379962</v>
       </c>
       <c r="E74">
-        <v>-0.009925161362156832</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01301132820234028</v>
+      </c>
+      <c r="F74">
+        <v>0.07208330182545304</v>
+      </c>
+      <c r="G74">
+        <v>0.04770512407467843</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.003676370995683052</v>
+        <v>-0.2529805674100715</v>
       </c>
       <c r="C75">
-        <v>-0.2014190047558552</v>
+        <v>0.1525803724529594</v>
       </c>
       <c r="D75">
-        <v>0.2740871236886848</v>
+        <v>-0.03020362573758531</v>
       </c>
       <c r="E75">
-        <v>-0.0306183343714303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.04428900059347226</v>
+      </c>
+      <c r="F75">
+        <v>0.1883946662236606</v>
+      </c>
+      <c r="G75">
+        <v>-0.02298235916813013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004057562056641902</v>
+        <v>-0.1276484300270879</v>
       </c>
       <c r="C76">
-        <v>-0.1385785476636927</v>
+        <v>0.1225274537938984</v>
       </c>
       <c r="D76">
-        <v>0.2271368883290766</v>
+        <v>-0.02069665418642251</v>
       </c>
       <c r="E76">
-        <v>0.003257660822079929</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04369081589799106</v>
+      </c>
+      <c r="F76">
+        <v>0.1216779913441562</v>
+      </c>
+      <c r="G76">
+        <v>0.02604238652974685</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01132242745110232</v>
+        <v>-0.06559048522815132</v>
       </c>
       <c r="C77">
-        <v>-0.01443881996064618</v>
+        <v>0.06098489400924904</v>
       </c>
       <c r="D77">
-        <v>0.05401894861246605</v>
+        <v>0.01264330067755105</v>
       </c>
       <c r="E77">
-        <v>-0.008630779110587615</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04670341908857107</v>
+      </c>
+      <c r="F77">
+        <v>-0.02031041125616852</v>
+      </c>
+      <c r="G77">
+        <v>0.05084413701980452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003758123978460211</v>
+        <v>-0.03869650073443523</v>
       </c>
       <c r="C78">
-        <v>-0.008114835047208249</v>
+        <v>0.05176190565681425</v>
       </c>
       <c r="D78">
-        <v>0.06689339768481943</v>
+        <v>0.006122678078798669</v>
       </c>
       <c r="E78">
-        <v>0.0003241765623474266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01955567375451898</v>
+      </c>
+      <c r="F78">
+        <v>-0.04359085760618654</v>
+      </c>
+      <c r="G78">
+        <v>0.04026342731017046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01511346507587338</v>
+        <v>-0.05530410428811874</v>
       </c>
       <c r="C80">
-        <v>-0.1202605453955358</v>
+        <v>0.06239838092648411</v>
       </c>
       <c r="D80">
-        <v>0.1706074248283624</v>
+        <v>0.01346640446424707</v>
       </c>
       <c r="E80">
-        <v>0.9117519830844198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02949690067151289</v>
+      </c>
+      <c r="F80">
+        <v>-0.07310970393548712</v>
+      </c>
+      <c r="G80">
+        <v>0.879070148893053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.003417149717439613</v>
+        <v>-0.1464850348725225</v>
       </c>
       <c r="C81">
-        <v>-0.127833739300977</v>
+        <v>0.09600254657186534</v>
       </c>
       <c r="D81">
-        <v>0.1707184384708071</v>
+        <v>-0.01529409496810995</v>
       </c>
       <c r="E81">
-        <v>-0.009117374455164638</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0268637838243415</v>
+      </c>
+      <c r="F81">
+        <v>0.1242155079425664</v>
+      </c>
+      <c r="G81">
+        <v>0.02370525659889028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09161366703307923</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05256846053788487</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.004742982971649359</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0785415715549059</v>
+      </c>
+      <c r="F82">
+        <v>0.01487522262651601</v>
+      </c>
+      <c r="G82">
+        <v>0.007050788457933374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006522078873975834</v>
+        <v>-0.03035287714233615</v>
       </c>
       <c r="C83">
-        <v>-0.02674414131351192</v>
+        <v>0.01991127582725133</v>
       </c>
       <c r="D83">
-        <v>0.02195337881796262</v>
+        <v>0.005164385614376998</v>
       </c>
       <c r="E83">
-        <v>-0.004005734014650602</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02278199844621806</v>
+      </c>
+      <c r="F83">
+        <v>-0.02186333774080063</v>
+      </c>
+      <c r="G83">
+        <v>0.0277457959780407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01110133188134289</v>
+        <v>-0.2252389072476723</v>
       </c>
       <c r="C85">
-        <v>-0.1554014602652948</v>
+        <v>0.1521632841250601</v>
       </c>
       <c r="D85">
-        <v>0.2616597244427472</v>
+        <v>-0.01846157955516198</v>
       </c>
       <c r="E85">
-        <v>-0.03042688924312113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09026195671984404</v>
+      </c>
+      <c r="F85">
+        <v>0.1733214304341581</v>
+      </c>
+      <c r="G85">
+        <v>-0.04595867835640467</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006693097376399205</v>
+        <v>-0.007610486535373716</v>
       </c>
       <c r="C86">
-        <v>-0.02688827588914353</v>
+        <v>0.01467839238338059</v>
       </c>
       <c r="D86">
-        <v>0.007669424767721367</v>
+        <v>0.01022598617401506</v>
       </c>
       <c r="E86">
-        <v>-0.02106296865035728</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02915125574443193</v>
+      </c>
+      <c r="F86">
+        <v>-0.03770615033135959</v>
+      </c>
+      <c r="G86">
+        <v>0.06555967927287067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007295807429536245</v>
+        <v>-0.0176307562797175</v>
       </c>
       <c r="C87">
-        <v>-0.0118683963852759</v>
+        <v>0.02593721914713206</v>
       </c>
       <c r="D87">
-        <v>0.04094525786612017</v>
+        <v>0.0113171347472809</v>
       </c>
       <c r="E87">
-        <v>-0.001375171711766138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08341418194906788</v>
+      </c>
+      <c r="F87">
+        <v>-0.03301017078184092</v>
+      </c>
+      <c r="G87">
+        <v>0.05508263270496589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02627813859826714</v>
+        <v>-0.08977444127539766</v>
       </c>
       <c r="C88">
-        <v>-0.04010477620532062</v>
+        <v>0.06262870774585046</v>
       </c>
       <c r="D88">
-        <v>0.0305061014736683</v>
+        <v>0.0227800142043492</v>
       </c>
       <c r="E88">
-        <v>-0.003951594631369725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.009882735765821434</v>
+      </c>
+      <c r="F88">
+        <v>0.005093602597102477</v>
+      </c>
+      <c r="G88">
+        <v>0.03243144362532933</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05994292183131082</v>
+        <v>-0.2249206445597376</v>
       </c>
       <c r="C89">
-        <v>-0.3626392276728077</v>
+        <v>-0.3651385066007631</v>
       </c>
       <c r="D89">
-        <v>-0.2426910004803769</v>
+        <v>-0.005411548650057769</v>
       </c>
       <c r="E89">
-        <v>-0.01755818059050146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01803505804477608</v>
+      </c>
+      <c r="F89">
+        <v>0.02304257853351038</v>
+      </c>
+      <c r="G89">
+        <v>0.03797771487299089</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04555163868216188</v>
+        <v>-0.1983671997116477</v>
       </c>
       <c r="C90">
-        <v>-0.2793962202386127</v>
+        <v>-0.3286804459642475</v>
       </c>
       <c r="D90">
-        <v>-0.2271637292052666</v>
+        <v>-0.009448637376559597</v>
       </c>
       <c r="E90">
-        <v>-0.01772307413214513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01529752086451255</v>
+      </c>
+      <c r="F90">
+        <v>0.04696931568241115</v>
+      </c>
+      <c r="G90">
+        <v>0.008113051707336264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.000637335148974149</v>
+        <v>-0.2016168556983826</v>
       </c>
       <c r="C91">
-        <v>-0.1576615724349912</v>
+        <v>0.1392023291804932</v>
       </c>
       <c r="D91">
-        <v>0.2396072163941478</v>
+        <v>-0.02416497001855997</v>
       </c>
       <c r="E91">
-        <v>-0.01518118795141161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06397122440693993</v>
+      </c>
+      <c r="F91">
+        <v>0.1641844163176763</v>
+      </c>
+      <c r="G91">
+        <v>0.0141040627559427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0114679534206583</v>
+        <v>-0.2048708825828217</v>
       </c>
       <c r="C92">
-        <v>-0.324305357066176</v>
+        <v>-0.2583290195084145</v>
       </c>
       <c r="D92">
-        <v>-0.09188183752760158</v>
+        <v>-0.04701187863219003</v>
       </c>
       <c r="E92">
-        <v>-0.01338541377128433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.004643043586028215</v>
+      </c>
+      <c r="F92">
+        <v>0.09384747883787634</v>
+      </c>
+      <c r="G92">
+        <v>0.07578444920344705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04302488113294668</v>
+        <v>-0.2285691247660318</v>
       </c>
       <c r="C93">
-        <v>-0.3161706086057234</v>
+        <v>-0.3301401592710627</v>
       </c>
       <c r="D93">
-        <v>-0.2218429706347962</v>
+        <v>-0.01698248906563159</v>
       </c>
       <c r="E93">
-        <v>-0.04311615477514328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0002166773801576659</v>
+      </c>
+      <c r="F93">
+        <v>0.03254394116438893</v>
+      </c>
+      <c r="G93">
+        <v>-0.0004930006095059246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02135458273654732</v>
+        <v>-0.3119361191889458</v>
       </c>
       <c r="C94">
-        <v>-0.2037109669940762</v>
+        <v>0.1854525399327844</v>
       </c>
       <c r="D94">
-        <v>0.2457323295382373</v>
+        <v>-0.01613374709943539</v>
       </c>
       <c r="E94">
-        <v>-0.06124348545687399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1261491998052402</v>
+      </c>
+      <c r="F94">
+        <v>0.4868124674099678</v>
+      </c>
+      <c r="G94">
+        <v>-0.1527003618206853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004809662531460858</v>
+        <v>-0.08481907593836138</v>
       </c>
       <c r="C95">
-        <v>-0.05166388648277856</v>
+        <v>0.06575395638504328</v>
       </c>
       <c r="D95">
-        <v>0.08810176445013317</v>
+        <v>-0.00819112784994455</v>
       </c>
       <c r="E95">
-        <v>-0.1116168977800415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07342500971135346</v>
+      </c>
+      <c r="F95">
+        <v>-0.1621359539881252</v>
+      </c>
+      <c r="G95">
+        <v>-0.08196763380492468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.006334104961057476</v>
+        <v>-0.1974965920359091</v>
       </c>
       <c r="C98">
-        <v>-0.1616627174154139</v>
+        <v>0.04516663751675111</v>
       </c>
       <c r="D98">
-        <v>0.1162165926015655</v>
+        <v>-0.01374729672931985</v>
       </c>
       <c r="E98">
-        <v>-0.05523841925434168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.05922853369245051</v>
+      </c>
+      <c r="F98">
+        <v>-0.2563483730817426</v>
+      </c>
+      <c r="G98">
+        <v>-0.03789470619846941</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00709012669272458</v>
+        <v>-0.01060638717663126</v>
       </c>
       <c r="C101">
-        <v>-0.01758632558921545</v>
+        <v>0.02000680088218782</v>
       </c>
       <c r="D101">
-        <v>0.01300922366916881</v>
+        <v>0.007365866968985707</v>
       </c>
       <c r="E101">
-        <v>0.007772732644258464</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007357829356647667</v>
+      </c>
+      <c r="F101">
+        <v>0.01098841439957705</v>
+      </c>
+      <c r="G101">
+        <v>0.0402555191014605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01479347901697678</v>
+        <v>-0.1186815756562474</v>
       </c>
       <c r="C102">
-        <v>-0.09434512860462606</v>
+        <v>0.08477624135408073</v>
       </c>
       <c r="D102">
-        <v>0.1303029299806703</v>
+        <v>0.001315488852764942</v>
       </c>
       <c r="E102">
-        <v>-0.01586415058157852</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0303572038670657</v>
+      </c>
+      <c r="F102">
+        <v>0.04198727762020513</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002923166886412485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001738554562994936</v>
+        <v>-0.003747337621680271</v>
       </c>
       <c r="C103">
-        <v>-0.01349335786583889</v>
+        <v>0.005316625431100711</v>
       </c>
       <c r="D103">
-        <v>0.02774420690302704</v>
+        <v>0.000474371608270518</v>
       </c>
       <c r="E103">
-        <v>0.01402831707416025</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002808950972261413</v>
+      </c>
+      <c r="F103">
+        <v>0.007921464774773769</v>
+      </c>
+      <c r="G103">
+        <v>0.01798300284323486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9836605331404299</v>
+        <v>-0.03029495193936247</v>
       </c>
       <c r="C104">
-        <v>0.1175430286192431</v>
+        <v>-0.03892765687136109</v>
       </c>
       <c r="D104">
-        <v>-0.007695396520975574</v>
+        <v>0.9870908470580072</v>
       </c>
       <c r="E104">
-        <v>0.02572573891446119</v>
+        <v>-0.04081672508611005</v>
+      </c>
+      <c r="F104">
+        <v>0.04556895369586558</v>
+      </c>
+      <c r="G104">
+        <v>-0.0100631726804063</v>
       </c>
     </row>
   </sheetData>
